--- a/기타파일/졸업설계소요재료신청서（정성조）.xlsx
+++ b/기타파일/졸업설계소요재료신청서（정성조）.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>물 품 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,11 +55,6 @@
   </si>
   <si>
     <t>수령자:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매
-단가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,20 +117,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부가세 및 
-배송비
- 포함 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구매사이트 업체 최소화 (배송비 절약 및 빠른 수령)
 구매사이드의 재고수량 확인
 해외배송 배제(국내에 없거나 가격이 싸지만 배송 문제)
     (배송에 1개월 이상 소요되므로 국내의 물품으로 대체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량X단가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,32 +183,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://hitc.kr/shop/cart.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이케스팅 브라켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너트 류 : 정사각 너트 30 M6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>볼트 류: 셈스렌치볼트 M6x15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이케스팅 브라켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이케스팅 브라켓 2860(30용)
-모델명 : DCB 2860</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,22 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>볼트 류: 셈스렌치볼트 M6x15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼트 류: 셈스렌치볼트 M6x15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hitc.kr/shop/cart.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hitc.kr/shop/cart.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>135도 AL브라켓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,11 +210,6 @@
   </si>
   <si>
     <t>판형 스틸 브라켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판형(T형) 스틸 브라켓 30/60용
-모델명 : DSB 8055 T형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,43 +256,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://ko.aliexpress.com/item/1005005298635572.html?src=google&amp;src=google&amp;albch=shopping&amp;acnt=631-313-3945&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;albagn=888888&amp;isSmbActive=false&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;albcp=19262523110&amp;albag=&amp;trgt=&amp;crea=ko1005005298635572&amp;netw=x&amp;device=c&amp;albpg=&amp;albpd=ko1005005298635572&amp;gad_source=1&amp;gclid=EAIaIQobChMI_MC28NLzhAMVAMZMAh2UsQilEAQYASABEgKI_vD_BwE&amp;gclsrc=aw.ds&amp;aff_fcid=0f85df6b3ece48baa989bcba22b93388-1710415669405-09423-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=0f85df6b3ece48baa989bcba22b93388-1710415669405-09423-UneMJZVf&amp;terminal_id=967afb13b8ca42a887ed335eabc8b8bb&amp;afSmartRedirect=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄소섬유튜브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1pcs 3K 탄소 섬유 튜브 1000mm
-길이: 1000mm
-색상: 40x36x1000mm 1pcs
+    <t>https://kr.misumi-ec.com/vona2/detail/110301997310/?searchFlow=results2products&amp;KWSearch=%EB%84%88%ED%8A%B8&amp;list=PageSearchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴팩트 너트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인장스프링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.misumi-ec.com/vona2/detail/110302288510/?searchFlow=results2products&amp;KWSearch=%EC%9D%B8%EC%9E%A5%EC%8A%A4%ED%94%84%EB%A7%81&amp;list=PageSearchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인장 스프링 -중중하중/중하중 타입-
+브랜드 : 미스미(MISUMI)
+형번 : AWT20-60
+외경D(pi) : 20
+RoHS : 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육각렌치볼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.misumi-ec.com/vona2/detail/221000551286/?KWSearch=M3%20%eb%b3%bc%ed%8a%b8&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">육각 홀 붙이 볼트(전나사, 반나사)
+브랜드 : 산코(SUNCO)
+형번 : CSH-SUS-M3-25
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://ko.aliexpress.com/item/1005006287413435.html?src=google&amp;src=google&amp;albch=shopping&amp;acnt=631-313-3945&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;albagn=888888&amp;isSmbActive=false&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;albcp=19147525093&amp;albag=&amp;trgt=&amp;crea=ko1005006287413435&amp;netw=x&amp;device=c&amp;albpg=&amp;albpd=ko1005006287413435&amp;gad_source=1&amp;gclid=EAIaIQobChMIoKaOvdTuhAMViS17Bx1eXAUlEAQYASABEgLcX_D_BwE&amp;gclsrc=aw.ds&amp;aff_fcid=9fe884d223f44b4486c54fa507d75d79-1710244300548-02458-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=9fe884d223f44b4486c54fa507d75d79-1710244300548-02458-UneMJZVf&amp;terminal_id=967afb13b8ca42a887ed335eabc8b8bb&amp;afSmartRedirect=y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBON 탄소 섬유 튜브 무지 직조 광택
-색상: 14x12x1000mm 1pcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄소섬유튜브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kr.misumi-ec.com/vona2/detail/110301997310/?searchFlow=results2products&amp;KWSearch=%EB%84%88%ED%8A%B8&amp;list=PageSearchResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴팩트 너트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인장스프링</t>
+    <t>육각 홀 붙이 볼트(전나사, 반나사)
+브랜드 : 산코(SUNCO)
+형번 : CSH-SUS-M3-45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.misumi-ec.com/vona2/detail/221000551286/?KWSearch=M3%20%eb%b3%bc%ed%8a%b8&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1289253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테프론튜브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테프론튜브 (실리콘)
+상품번호 : 1289253
+제조사 : SMG-A
+사이즈 : 7x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hitc.kr/shop/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나일론 너트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나일론 너트(1종)
+브랜드 : 토모에(TOMOE)
+형번 : NN1-M3-CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kr.misumi-ec.com/vona2/detail/221000608571/?searchFlow=results2products&amp;KWSearch=%EB%82%98%EC%9D%BC%EB%A1%A0+%EB%84%88%ED%8A%B8&amp;list=PageSearchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매
+단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이케스팅 브라켓 2860(30용)
+모델명 : DCB 2860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이케스팅 브라켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셈스렌치볼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카본파이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카본파이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://carbonmake.co.kr/shop/list.php?goPage=GoodDetail&amp;idx=430&amp;cat_no=70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카본파이프 외경40X내경36
+길이 : 1000mm
+**추가가공(절단) : 40X36파이프 188mm 3개절단
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,54 +396,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kr.misumi-ec.com/vona2/detail/110302288510/?searchFlow=results2products&amp;KWSearch=%EC%9D%B8%EC%9E%A5%EC%8A%A4%ED%94%84%EB%A7%81&amp;list=PageSearchResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인장 스프링 -중중하중/중하중 타입-
-브랜드 : 미스미(MISUMI)
-형번 : AWT20-60
-외경D(pi) : 20
-RoHS : 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>육각렌치볼트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kr.misumi-ec.com/vona2/detail/221000551286/?KWSearch=M3%20%eb%b3%bc%ed%8a%b8&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">육각 홀 붙이 볼트(전나사, 반나사)
-브랜드 : 산코(SUNCO)
-형번 : CSH-SUS-M3-25
+    <t>http://carbonmake.co.kr/shop/list.php?goPage=GoodDetail&amp;idx=1242&amp;cat_no=67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카본파이프 외경14X내경12
+길이 : 1200mm
+**추가가공(절단) : 14X12파이프 560mm 6개절단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정성조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진공펌프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VaccumPump-12V ROB-10398
+상품코드 : RS-018299
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>육각 홀 붙이 볼트(전나사, 반나사)
-브랜드 : 산코(SUNCO)
-형번 : CSH-SUS-M3-45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kr.misumi-ec.com/vona2/detail/221000551286/?KWSearch=M3%20%eb%b3%bc%ed%8a%b8&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나일론 너트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나일론 너트(1종)
-브랜드 : 토모에(TOMOE)
-형번 : NN1-M3-CB</t>
+    <t>https://www.devicemart.co.kr/goods/view?no=1313216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jenomall.com/goods/goods_view.php?goodsNo=1000009174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전원공급장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니온 SMPS 전원공급장치 AC-DC 12V 1.3A 15W (A-15NR-12)
+브랜드 : 제노물
+자체상품코드 : A-15NR-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +446,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +548,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="함초롬돋움"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -975,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1052,9 +1084,6 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1070,22 +1099,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1112,122 +1246,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1510,17 +1569,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="2" customWidth="1"/>
     <col min="4" max="5" width="3.69921875" style="2" customWidth="1"/>
     <col min="6" max="7" width="6.69921875" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.69921875" style="2" customWidth="1"/>
@@ -1529,17 +1588,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -1564,51 +1623,51 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="A5" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1628,685 +1687,738 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="43"/>
+      <c r="H8" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="77"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="69.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="B9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="37">
         <v>6</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="45"/>
+      <c r="F9" s="27">
+        <f>2633+140.37</f>
+        <v>2773.37</v>
+      </c>
+      <c r="G9" s="27">
+        <f>E9*F9</f>
+        <v>16640.22</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="49">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="D10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="37">
         <v>4</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="54"/>
+      <c r="F10" s="27">
+        <v>7573</v>
+      </c>
+      <c r="G10" s="27">
+        <f>E10*F10</f>
+        <v>30292</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="50"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="27">
+      <c r="D11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="37">
         <v>4</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
+      <c r="F11" s="27">
+        <v>6523</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" ref="G11:G15" si="0">E11*F11</f>
+        <v>26092</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="50"/>
-      <c r="B12" s="47"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="27">
+        <v>25</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="37">
         <v>4</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="80">
+        <v>6693</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="0"/>
+        <v>26772</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="50"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="8">
+        <v>26</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="40">
         <v>1</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
+      <c r="F13" s="80">
+        <v>4023</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="0"/>
+        <v>4023</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="50"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="B14" s="53"/>
+      <c r="C14" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="40">
         <v>2</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
+      <c r="F14" s="80">
+        <v>3863</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="0"/>
+        <v>7726</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="51"/>
-      <c r="B15" s="48"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="40">
+        <v>2</v>
+      </c>
+      <c r="F15" s="42">
+        <v>2763</v>
+      </c>
+      <c r="G15" s="81">
+        <f t="shared" si="0"/>
+        <v>5526</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="85">
+        <v>3</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="39">
+        <v>6</v>
+      </c>
+      <c r="F16" s="41">
+        <v>2150</v>
+      </c>
+      <c r="G16" s="41">
+        <f>E16*F16</f>
+        <v>12900</v>
+      </c>
+      <c r="H16" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="88"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="85">
+        <v>4</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="39">
+        <v>8</v>
+      </c>
+      <c r="F17" s="41">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" ref="G17:G18" si="1">E17*F17</f>
+        <v>9600</v>
+      </c>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="38">
+        <v>5</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="39">
+        <v>44</v>
+      </c>
+      <c r="F18" s="41">
+        <v>500</v>
+      </c>
+      <c r="G18" s="41">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="49">
+        <v>6</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="39">
+        <v>132</v>
+      </c>
+      <c r="F19" s="41">
+        <v>130</v>
+      </c>
+      <c r="G19" s="41">
+        <f>E19*F19</f>
+        <v>17160</v>
+      </c>
+      <c r="H19" s="89"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="40">
+        <v>132</v>
+      </c>
+      <c r="F20" s="42">
+        <v>50</v>
+      </c>
+      <c r="G20" s="42">
+        <f>E20*F20</f>
+        <v>6600</v>
+      </c>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
+    </row>
+    <row r="21" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>7</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="40">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
+        <f>18360+140.37</f>
+        <v>18500.37</v>
+      </c>
+      <c r="G21" s="15">
+        <f>E21*F21</f>
+        <v>18500.37</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>8</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="40">
+        <v>12</v>
+      </c>
+      <c r="F22" s="15">
+        <v>3784</v>
+      </c>
+      <c r="G22" s="42">
+        <f>E22*F22</f>
+        <v>45408</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="47"/>
+    </row>
+    <row r="23" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>9</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="33">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35">
+        <v>79750</v>
+      </c>
+      <c r="G23" s="42">
+        <f>E23*F23</f>
+        <v>79750</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="32">
+        <v>10</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="33">
+        <v>3</v>
+      </c>
+      <c r="F24" s="35">
+        <v>27500</v>
+      </c>
+      <c r="G24" s="42">
+        <f>E24*F24</f>
+        <v>82500</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" spans="1:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="32">
+        <v>11</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="33">
         <v>2</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="49">
-        <v>3</v>
-      </c>
-      <c r="B16" s="46" t="s">
+      <c r="F25" s="35">
+        <f>14128+140.37</f>
+        <v>14268.37</v>
+      </c>
+      <c r="G25" s="42">
+        <f>E25*F25</f>
+        <v>28536.74</v>
+      </c>
+      <c r="H25" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="I25" s="45"/>
+    </row>
+    <row r="26" spans="1:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="32">
+        <v>12</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="33">
+        <v>12</v>
+      </c>
+      <c r="F26" s="35">
+        <f>116+140.37</f>
+        <v>256.37</v>
+      </c>
+      <c r="G26" s="42">
+        <f>E26*F26</f>
+        <v>3076.44</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="32">
+        <v>13</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="33">
+        <v>12</v>
+      </c>
+      <c r="F27" s="35">
+        <f>301+140.37</f>
+        <v>441.37</v>
+      </c>
+      <c r="G27" s="42">
+        <f>E27*F27</f>
+        <v>5296.4400000000005</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="32">
+        <v>14</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="33">
+        <v>1</v>
+      </c>
+      <c r="F28" s="35">
+        <v>7150</v>
+      </c>
+      <c r="G28" s="42">
+        <f>E28*F28</f>
+        <v>7150</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="83"/>
+    </row>
+    <row r="29" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="32">
+        <v>15</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="33">
+        <v>18</v>
+      </c>
+      <c r="F29" s="35">
+        <f>140.37+232</f>
+        <v>372.37</v>
+      </c>
+      <c r="G29" s="42">
+        <f>E29*F29</f>
+        <v>6702.66</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="83"/>
+    </row>
+    <row r="30" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="32">
+        <v>16</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1</v>
+      </c>
+      <c r="F30" s="35">
+        <v>36910</v>
+      </c>
+      <c r="G30" s="35">
+        <f>E30*F30</f>
+        <v>36910</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="32">
+        <v>15</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="33">
+        <v>1</v>
+      </c>
+      <c r="F31" s="35">
+        <v>17700</v>
+      </c>
+      <c r="G31" s="35">
+        <f>E31*F31</f>
+        <v>17700</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="83"/>
+    </row>
+    <row r="32" spans="1:9" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="25">
+        <f>SUM(G9:G31)</f>
+        <v>516861.86999999994</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="73"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="54"/>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="50"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="8">
-        <v>12</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-    </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="51"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="8">
-        <v>12</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="49">
-        <v>4</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8">
-        <v>8</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="73"/>
-    </row>
-    <row r="20" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="50"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="8">
-        <v>16</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="51"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="8">
-        <v>16</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="77"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="49">
-        <v>5</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="8">
-        <v>44</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="54"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="50"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="8">
-        <v>88</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-    </row>
-    <row r="24" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="51"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="8">
-        <v>88</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="49">
-        <v>6</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="70">
-        <v>8</v>
-      </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="54"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="50"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="50"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="8">
-        <v>16</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
-    </row>
-    <row r="28" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="51"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="8">
-        <v>16</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
-    </row>
-    <row r="29" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7">
-        <v>7</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="79"/>
-    </row>
-    <row r="30" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7">
-        <v>8</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="8">
-        <v>12</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="79"/>
-    </row>
-    <row r="31" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
-        <v>9</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="35">
-        <v>3</v>
-      </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="79"/>
-    </row>
-    <row r="32" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="34">
-        <v>10</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="35">
-        <v>6</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="79"/>
-    </row>
-    <row r="33" spans="1:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="34">
-        <v>11</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="35">
-        <v>2</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="52"/>
-    </row>
-    <row r="34" spans="1:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="34">
-        <v>12</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="35">
-        <v>12</v>
-      </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37">
-        <v>1392</v>
-      </c>
-      <c r="H34" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="52"/>
-    </row>
-    <row r="35" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="34">
-        <v>13</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="35">
-        <v>12</v>
-      </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37">
-        <v>3612</v>
-      </c>
-      <c r="H35" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="52"/>
-    </row>
-    <row r="36" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="34">
-        <v>14</v>
-      </c>
-      <c r="B36" s="36" t="s">
+      <c r="E35" s="74"/>
+      <c r="F35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="35">
-        <v>18</v>
-      </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37">
-        <v>4176</v>
-      </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="1:9" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="25">
-        <f>SUM(G9:G36)</f>
-        <v>9180</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="39"/>
-    </row>
-    <row r="38" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
+  <mergeCells count="27">
+    <mergeCell ref="H16:I20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="H19:I21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H10:I15"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H10:I15"/>
-    <mergeCell ref="H25:I28"/>
-    <mergeCell ref="H22:I24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1"/>
-    <hyperlink ref="H10" r:id="rId2"/>
-    <hyperlink ref="H19" r:id="rId3"/>
-    <hyperlink ref="H22" r:id="rId4"/>
-    <hyperlink ref="H25" r:id="rId5"/>
-    <hyperlink ref="H29" r:id="rId6"/>
-    <hyperlink ref="H30" r:id="rId7"/>
-    <hyperlink ref="H33" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="H34" r:id="rId10"/>
-    <hyperlink ref="H35" r:id="rId11"/>
+    <hyperlink ref="H10" r:id="rId1"/>
+    <hyperlink ref="H21" r:id="rId2"/>
+    <hyperlink ref="H22" r:id="rId3"/>
+    <hyperlink ref="H25" r:id="rId4"/>
+    <hyperlink ref="H9" r:id="rId5"/>
+    <hyperlink ref="H26" r:id="rId6"/>
+    <hyperlink ref="H27" r:id="rId7"/>
+    <hyperlink ref="H28" r:id="rId8"/>
+    <hyperlink ref="H29" r:id="rId9"/>
+    <hyperlink ref="H16" r:id="rId10"/>
+    <hyperlink ref="H24" r:id="rId11"/>
+    <hyperlink ref="H23" r:id="rId12"/>
+    <hyperlink ref="H30" r:id="rId13"/>
+    <hyperlink ref="H31" r:id="rId14"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>